--- a/Tables/mkt/valid_gages_mk_totals_30_90.xlsx
+++ b/Tables/mkt/valid_gages_mk_totals_30_90.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I7"/>
+  <dimension ref="A1:I5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -509,155 +509,93 @@
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>mk_duration</t>
+          <t>mk_intra_annual</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>3803</v>
+        <v>3768</v>
       </c>
       <c r="C3" t="n">
-        <v>89.7</v>
+        <v>88.8</v>
       </c>
       <c r="D3" t="n">
-        <v>220</v>
+        <v>278</v>
       </c>
       <c r="E3" t="n">
-        <v>5.2</v>
+        <v>6.6</v>
       </c>
       <c r="F3" t="n">
-        <v>219</v>
+        <v>196</v>
       </c>
       <c r="G3" t="n">
-        <v>5.2</v>
+        <v>4.6</v>
       </c>
       <c r="H3" t="n">
-        <v>439</v>
+        <v>474</v>
       </c>
       <c r="I3" t="n">
-        <v>10.4</v>
+        <v>11.2</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>mk_intra_annual</t>
+          <t>mk_event_dur</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>3768</v>
+        <v>3870</v>
       </c>
       <c r="C4" t="n">
-        <v>88.8</v>
+        <v>91.2</v>
       </c>
       <c r="D4" t="n">
-        <v>278</v>
+        <v>180</v>
       </c>
       <c r="E4" t="n">
-        <v>6.6</v>
+        <v>4.2</v>
       </c>
       <c r="F4" t="n">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="G4" t="n">
-        <v>4.6</v>
+        <v>4.5</v>
       </c>
       <c r="H4" t="n">
-        <v>474</v>
+        <v>372</v>
       </c>
       <c r="I4" t="n">
-        <v>11.2</v>
+        <v>8.699999999999999</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>mk_event_mag</t>
+          <t>mk_timing</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>3949</v>
+        <v>4107</v>
       </c>
       <c r="C5" t="n">
-        <v>93.09999999999999</v>
+        <v>96.8</v>
       </c>
       <c r="D5" t="n">
-        <v>128</v>
+        <v>57</v>
       </c>
       <c r="E5" t="n">
-        <v>3</v>
+        <v>1.3</v>
       </c>
       <c r="F5" t="n">
-        <v>165</v>
+        <v>78</v>
       </c>
       <c r="G5" t="n">
-        <v>3.9</v>
+        <v>1.8</v>
       </c>
       <c r="H5" t="n">
-        <v>293</v>
+        <v>135</v>
       </c>
       <c r="I5" t="n">
-        <v>6.9</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="inlineStr">
-        <is>
-          <t>mk_event_dur</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
-        <v>3870</v>
-      </c>
-      <c r="C6" t="n">
-        <v>91.2</v>
-      </c>
-      <c r="D6" t="n">
-        <v>180</v>
-      </c>
-      <c r="E6" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="F6" t="n">
-        <v>192</v>
-      </c>
-      <c r="G6" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="H6" t="n">
-        <v>372</v>
-      </c>
-      <c r="I6" t="n">
-        <v>8.699999999999999</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="inlineStr">
-        <is>
-          <t>mk_timing</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
-        <v>4107</v>
-      </c>
-      <c r="C7" t="n">
-        <v>96.8</v>
-      </c>
-      <c r="D7" t="n">
-        <v>57</v>
-      </c>
-      <c r="E7" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="F7" t="n">
-        <v>78</v>
-      </c>
-      <c r="G7" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="H7" t="n">
-        <v>135</v>
-      </c>
-      <c r="I7" t="n">
         <v>3.1</v>
       </c>
     </row>
